--- a/DataUpload/Seed Data/header3.xlsx
+++ b/DataUpload/Seed Data/header3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="97">
   <si>
     <t>Distributor Name</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>ff</t>
+  </si>
+  <si>
+    <t>Ankitaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -847,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +975,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>41</v>
